--- a/queries/remon raw scenarios/AC Type 2.xlsx
+++ b/queries/remon raw scenarios/AC Type 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\queries\remon raw scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Git 2\scenario\remon_raw_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419C006C-5FDC-479D-B7B3-EF9B8F86C084}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80B83F-9105-41B7-AAB7-7C880E5EDCCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1305" windowWidth="10695" windowHeight="13950" xr2:uid="{387ECC03-4236-429D-882A-E101A289F3C1}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="22260" windowHeight="13425" xr2:uid="{387ECC03-4236-429D-882A-E101A289F3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,16 +425,122 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -442,16 +548,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="18">
+    <cellStyle name="Accent" xfId="8" xr:uid="{9CD39727-F34B-42B5-BB0F-497A31E169FD}"/>
+    <cellStyle name="Accent 1" xfId="9" xr:uid="{81CD30F5-2A47-463B-BE7A-88A118D82558}"/>
+    <cellStyle name="Accent 2" xfId="10" xr:uid="{5AA864BE-EB07-4EDC-AE08-E7F84961B408}"/>
+    <cellStyle name="Accent 3" xfId="11" xr:uid="{CD6E9BE4-132B-4FB3-8FE4-7D25B77477AE}"/>
+    <cellStyle name="Bad 2" xfId="5" xr:uid="{1EE4AAB1-2B08-4991-B0CC-37D7F28FCC3F}"/>
+    <cellStyle name="Error" xfId="12" xr:uid="{8CE79E74-A333-400D-9061-8E4CBD72F28C}"/>
+    <cellStyle name="Footnote" xfId="13" xr:uid="{3EF06E73-B31A-4FBA-9F36-407AA2670E61}"/>
+    <cellStyle name="Good 2" xfId="4" xr:uid="{AD9D3FC3-E1F1-4931-804A-C7BB30CF7AA4}"/>
+    <cellStyle name="Heading" xfId="14" xr:uid="{5A5FFA61-0F7B-42D2-823F-954C10C0E4B2}"/>
+    <cellStyle name="Heading 1 2" xfId="2" xr:uid="{DDF3D78D-7DB7-45B9-AA41-8D068A88D4F5}"/>
+    <cellStyle name="Heading 2 2" xfId="3" xr:uid="{BC4361FF-33D0-4385-AB43-7E09ABED0188}"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{9560BC5B-4EB0-47C9-8E69-E9B0B76B1F56}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3D729A38-B98E-4A5F-A35B-654D2DECBE9A}"/>
+    <cellStyle name="Note 2" xfId="7" xr:uid="{8D51436A-AD21-4290-A915-CF871D8A40F1}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{DE6C9A5B-623D-4D34-874F-B8DCC4B9816C}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{43AFFBF4-649C-40E8-9622-7A8C7195CCE4}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{76578B2B-ED4D-41BD-BB37-36C7390C0DD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,12 +1010,15 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -859,961 +1038,1186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0.60770833333333341</v>
+        <v>0.25570601851851854</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>0.26225694444444442</v>
+        <v>0.17597222222222222</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
-        <v>0.87195601851851856</v>
+        <v>0.61420138888888887</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
-        <v>0.25570601851851854</v>
+        <v>0.38473379629629628</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.74434027777777778</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.42600694444444448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.19697916666666668</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.25854166666666667</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.17597222222222222</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.2980902777777778</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.19697916666666668</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.57622685185185185</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.86442129629629638</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.68605324074074081</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
-        <v>0.57195601851851852</v>
+        <v>0.67243055555555553</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.83493055555555562</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.64378472222222227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.56938657407407411</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.8194444444444449E-2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G15" s="2">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.57622685185185185</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.15857638888888889</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.68605324074074081</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.86572916666666666</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.25854166666666667</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.40806712962962965</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.75883101851851853</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.38473379629629628</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
-        <v>0.15747685185185187</v>
+        <v>0.33802083333333338</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.48732638888888885</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.31820601851851854</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.68774305555555559</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.75883101851851853</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="2">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.40806712962962965</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="2">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.60770833333333341</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5.0532407407407408E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.15747685185185187</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C29" s="1">
         <v>0.5490046296296297</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.74434027777777778</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G29" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.26225694444444442</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.88740740740740742</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C31" s="1">
+        <v>0.2980902777777778</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.47261574074074075</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15</v>
+      </c>
+      <c r="H32" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.4444444444444445E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="2">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.53907407407407404</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="2">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.50938657407407406</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.60337962962962965</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.87195601851851856</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.60337962962962965</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.94369212962962967</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.61420138888888887</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.83493055555555562</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.78740740740740733</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.703125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29">
-        <v>15</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.28059027777777779</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.50486111111111109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <v>15</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5.0532407407407408E-2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.68774305555555559</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.67243055555555553</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.42600694444444448</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.56938657407407411</v>
-      </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C38" s="1">
+        <v>4.8194444444444449E-2</v>
+      </c>
+      <c r="D38" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.33802083333333338</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.68924768518518509</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
+      <c r="H38" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.84980324074074076</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15</v>
+      </c>
+      <c r="H39" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.703125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15</v>
+      </c>
+      <c r="H40" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.88740740740740742</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15</v>
+      </c>
+      <c r="H41" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.46579861111111115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.68924768518518509</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15</v>
+      </c>
+      <c r="H43" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.0601851851851851E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="H44" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15</v>
+      </c>
+      <c r="H45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.78740740740740733</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15</v>
+      </c>
+      <c r="H46" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.57195601851851852</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.89177083333333329</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.86572916666666666</v>
+      </c>
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.47261574074074075</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F49" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.48732638888888885</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G49" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.28059027777777779</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.12351851851851851</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.84980324074074076</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.15857638888888889</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.64378472222222227</v>
-      </c>
-      <c r="D44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.53907407407407404</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.46579861111111115</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>15</v>
-      </c>
-      <c r="H46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.50938657407407406</v>
-      </c>
-      <c r="D47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47">
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="1">
-        <v>9.4444444444444445E-3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.89177083333333329</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.31820601851851854</v>
-      </c>
-      <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="1">
-        <v>6.0601851851851851E-2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51">
-        <v>15</v>
-      </c>
-      <c r="H51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="2">
+        <v>15</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1">
-        <v>0.12351851851851851</v>
+        <v>0.94369212962962967</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="2">
+        <v>15</v>
+      </c>
+      <c r="H52" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="C53" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>